--- a/DATA_goal/Junction_Flooding_464.xlsx
+++ b/DATA_goal/Junction_Flooding_464.xlsx
@@ -450,7 +450,7 @@
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
@@ -461,9 +461,9 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
@@ -655,103 +655,103 @@
         <v>44795.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.6</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.93</v>
       </c>
       <c r="J2" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="K2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.62</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44795.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>1.5</v>
+        <v>15.01</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="X3" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.2</v>
       </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.9</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.25</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.17</v>
+        <v>1.69</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.03</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44795.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.25</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.21</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.06</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.11</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.64</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.73</v>
+        <v>7.26</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.53</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.47</v>
+        <v>4.67</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.04</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.84</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>6.1</v>
+        <v>61.01</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.05</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.86</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.59</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.15</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.22</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.55</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.01</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44795.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.79</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.11</v>
+        <v>11.12</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.2</v>
+        <v>32.04</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.66</v>
+        <v>26.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.14</v>
+        <v>41.35</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.82</v>
+        <v>18.23</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.1</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.36</v>
+        <v>13.58</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.37</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>16.99</v>
+        <v>169.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.22</v>
+        <v>32.2</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.22</v>
+        <v>22.18</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.15</v>
+        <v>1.53</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.09</v>
+        <v>20.95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.83</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.37</v>
+        <v>13.65</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.79</v>
+        <v>37.87</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.33</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_464.xlsx
+++ b/DATA_goal/Junction_Flooding_464.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44795.54861111111</v>
+        <v>45145.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.6</v>
+        <v>17.295</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.57</v>
+        <v>11.407</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.13</v>
+        <v>3.988</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.7</v>
+        <v>36.822</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.59</v>
+        <v>28.934</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>13.611</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.67</v>
+        <v>42.104</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.93</v>
+        <v>20.942</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.31</v>
+        <v>8.632</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>12.848</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.84</v>
+        <v>14.482</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.09</v>
+        <v>15.027</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.06</v>
+        <v>4.344</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.78</v>
+        <v>13.535</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>18.799</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.14</v>
+        <v>11.717</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>3.386</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.63</v>
+        <v>2.226</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.17</v>
+        <v>198.649</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>37.584</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.64</v>
+        <v>12.493</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.74</v>
+        <v>24.537</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.28</v>
+        <v>12.435</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.13</v>
+        <v>3.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.42</v>
+        <v>21.511</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.47</v>
+        <v>11.035</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.21</v>
+        <v>10.064</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.48</v>
+        <v>11.833</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>15.025</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>3.317</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.62</v>
+        <v>37.614</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.59</v>
+        <v>6.758</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44795.55555555555</v>
+        <v>45145.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.76</v>
+        <v>24.021</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.33</v>
+        <v>17.322</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.1</v>
+        <v>2.066</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.46</v>
+        <v>52.091</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.05</v>
+        <v>42.151</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.9</v>
+        <v>18.904</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.47</v>
+        <v>71.25700000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.82</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.62</v>
+        <v>12.725</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.53</v>
+        <v>18.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.67</v>
+        <v>20.857</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.41</v>
+        <v>21.894</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.43</v>
+        <v>6.038</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.65</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.57</v>
+        <v>26.609</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.82</v>
+        <v>16.02</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.16</v>
+        <v>1.594</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.31</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.01</v>
+        <v>278.818</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.47</v>
+        <v>52.56</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.52</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.99</v>
+        <v>35.068</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.01</v>
+        <v>18.275</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.2</v>
+        <v>3.131</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.9</v>
+        <v>35.042</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.21</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.96</v>
+        <v>13.724</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.25</v>
+        <v>16.121</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.69</v>
+        <v>21.804</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.34</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.72</v>
+        <v>64.971</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.03</v>
+        <v>9.66</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.46</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44795.5625</v>
+        <v>45145.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.64</v>
+        <v>24.502</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.25</v>
+        <v>17.939</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.21</v>
+        <v>1.593</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.06</v>
+        <v>53.231</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.12</v>
+        <v>43.339</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.11</v>
+        <v>19.282</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.64</v>
+        <v>75.22199999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.26</v>
+        <v>29.668</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.53</v>
+        <v>13.113</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.67</v>
+        <v>19.365</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.03</v>
+        <v>21.351</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.09</v>
+        <v>22.478</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.43</v>
+        <v>6.159</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.64</v>
+        <v>19.174</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.04</v>
+        <v>27.241</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.41</v>
+        <v>16.227</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.84</v>
+        <v>1.105</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.069</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>61.01</v>
+        <v>284.545</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.05</v>
+        <v>53.639</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.29</v>
+        <v>17.698</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.609999999999999</v>
+        <v>35.959</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.78</v>
+        <v>18.808</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.59</v>
+        <v>2.956</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.15</v>
+        <v>36.475</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.67</v>
+        <v>15.633</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.16</v>
+        <v>13.912</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.81</v>
+        <v>16.348</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.26</v>
+        <v>22.373</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.22</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.61</v>
+        <v>68.42700000000001</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.55</v>
+        <v>9.92</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.01</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44795.56944444445</v>
+        <v>45145.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.79</v>
+        <v>22.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.12</v>
+        <v>16.62</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.51</v>
+        <v>1.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.04</v>
+        <v>49.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.61</v>
+        <v>40.05</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.4</v>
+        <v>17.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.35</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.23</v>
+        <v>27.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.42</v>
+        <v>12.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.1</v>
+        <v>17.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>13</v>
+        <v>19.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.58</v>
+        <v>20.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.73</v>
+        <v>5.68</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.76</v>
+        <v>17.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.37</v>
+        <v>25.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>14.91</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.43</v>
+        <v>0.9</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>169.86</v>
+        <v>261.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.2</v>
+        <v>49.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.86</v>
+        <v>16.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.18</v>
+        <v>33.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.8</v>
+        <v>17.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.53</v>
+        <v>2.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.95</v>
+        <v>33.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.5</v>
+        <v>14.41</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.300000000000001</v>
+        <v>12.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.84</v>
+        <v>15.03</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.65</v>
+        <v>20.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.87</v>
+        <v>63.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.28</v>
+        <v>9.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44795.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>31.07</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>44.13</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>40.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.89</v>
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_464.xlsx
+++ b/DATA_goal/Junction_Flooding_464.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,26 +451,26 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45145.50694444445</v>
+        <v>44795.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>17.295</v>
+        <v>0.596</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.407</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.988</v>
+        <v>0.131</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>36.822</v>
+        <v>0.703</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>28.934</v>
+        <v>0.594</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.611</v>
+        <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>42.104</v>
+        <v>0.673</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.942</v>
+        <v>2.927</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.632</v>
+        <v>1.311</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.848</v>
+        <v>0.574</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.482</v>
+        <v>0.838</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>15.027</v>
+        <v>0.092</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.344</v>
+        <v>0.061</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.535</v>
+        <v>0.781</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.799</v>
+        <v>0.09</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.717</v>
+        <v>0.143</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.386</v>
+        <v>2.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.226</v>
+        <v>0.626</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>198.649</v>
+        <v>2.165</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>37.584</v>
+        <v>0.66</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.493</v>
+        <v>0.638</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>24.537</v>
+        <v>1.735</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.435</v>
+        <v>2.278</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.148</v>
+        <v>0.128</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>21.511</v>
+        <v>0.419</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>11.035</v>
+        <v>0.467</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>10.064</v>
+        <v>0.214</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.833</v>
+        <v>0.476</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>15.025</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.317</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>37.614</v>
+        <v>2.624</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.758</v>
+        <v>0.591</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.619</v>
+        <v>0.381</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45145.51388888889</v>
+        <v>44795.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>24.021</v>
+        <v>1.759</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.322</v>
+        <v>1.335</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>2.066</v>
+        <v>0.102</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>52.091</v>
+        <v>3.463</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>42.151</v>
+        <v>3.045</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>18.904</v>
+        <v>0.903</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>71.25700000000001</v>
+        <v>3.475</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>29.086</v>
+        <v>2.817</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.725</v>
+        <v>1.621</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.77</v>
+        <v>1.528</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.857</v>
+        <v>1.671</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.894</v>
+        <v>1.412</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>6.038</v>
+        <v>0.434</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.798</v>
+        <v>1.655</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>26.609</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>16.02</v>
+        <v>0.823</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.594</v>
+        <v>1.161</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.31</v>
+        <v>0.177</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>278.818</v>
+        <v>15.007</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>52.56</v>
+        <v>3.473</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>17.351</v>
+        <v>1.519</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>35.068</v>
+        <v>2.987</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>18.275</v>
+        <v>2.008</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>3.131</v>
+        <v>0.202</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>35.042</v>
+        <v>1.897</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>15.326</v>
+        <v>1.209</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.724</v>
+        <v>0.957</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>16.121</v>
+        <v>1.249</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>21.804</v>
+        <v>1.693</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.247</v>
+        <v>0.343</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>64.971</v>
+        <v>3.722</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.66</v>
+        <v>1.025</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.693</v>
+        <v>1.458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45145.52083333334</v>
+        <v>44795.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.502</v>
+        <v>5.64</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>17.939</v>
+        <v>4.245</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.593</v>
+        <v>0.212</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>53.231</v>
+        <v>12.064</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>43.339</v>
+        <v>10.117</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>19.282</v>
+        <v>4.113</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>75.22199999999999</v>
+        <v>13.638</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.668</v>
+        <v>7.263</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.113</v>
+        <v>3.532</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.365</v>
+        <v>4.674</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21.351</v>
+        <v>5.029</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.478</v>
+        <v>5.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.159</v>
+        <v>1.426</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>19.174</v>
+        <v>4.641</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>27.241</v>
+        <v>6.037</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>16.227</v>
+        <v>3.412</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.105</v>
+        <v>0.836</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1.069</v>
+        <v>0.194</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>284.545</v>
+        <v>61.008</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>53.639</v>
+        <v>12.055</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.698</v>
+        <v>4.286</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.959</v>
+        <v>8.605</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.808</v>
+        <v>4.775</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.956</v>
+        <v>0.593</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>36.475</v>
+        <v>7.145</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.633</v>
+        <v>3.672</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>13.912</v>
+        <v>3.164</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.348</v>
+        <v>3.814</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.373</v>
+        <v>5.261</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.223</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>68.42700000000001</v>
+        <v>12.605</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.92</v>
+        <v>2.554</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>22.127</v>
+        <v>5.011</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45145.52777777778</v>
+        <v>44795.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>22.58</v>
+        <v>14.789</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.62</v>
+        <v>11.117</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.31</v>
+        <v>0.511</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>49.08</v>
+        <v>32.043</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>40.05</v>
+        <v>26.606</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>17.77</v>
+        <v>11.398</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>70.01000000000001</v>
+        <v>41.351</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>27.34</v>
+        <v>18.232</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12.13</v>
+        <v>8.42</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.92</v>
+        <v>12.097</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>19.7</v>
+        <v>12.998</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.76</v>
+        <v>13.582</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.68</v>
+        <v>3.732</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>17.67</v>
+        <v>11.764</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>25.14</v>
+        <v>16.373</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.91</v>
+        <v>9.391</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.86</v>
+        <v>0.728</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.431</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>261.65</v>
+        <v>169.86</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>49.44</v>
+        <v>32.202</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>16.31</v>
+        <v>10.863</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>33.2</v>
+        <v>22.176</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>17.38</v>
+        <v>11.798</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.65</v>
+        <v>1.529</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>33.82</v>
+        <v>20.947</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>14.41</v>
+        <v>9.499000000000001</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.79</v>
+        <v>8.295999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.03</v>
+        <v>9.837999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.66</v>
+        <v>13.653</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.166</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>63.65</v>
+        <v>37.866</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>9.16</v>
+        <v>6.278</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>20.39</v>
+        <v>13.299</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44795.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>10.77</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>31.07</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>25.78</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>13.17</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>11.37</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>15.91</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>9.119999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>164.2</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>31.32</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>21.51</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>11.38</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>21.65</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.039999999999999</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>9.529999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>13.22</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>40.46</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>12.89</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_464.xlsx
+++ b/DATA_goal/Junction_Flooding_464.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,26 +451,26 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44795.54861111111</v>
+        <v>45145.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.596</v>
+        <v>17.295</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5659999999999999</v>
+        <v>11.407</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.131</v>
+        <v>3.988</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.703</v>
+        <v>36.822</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.594</v>
+        <v>28.934</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>13.611</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.673</v>
+        <v>42.104</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.927</v>
+        <v>20.942</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.311</v>
+        <v>8.632</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.574</v>
+        <v>12.848</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.838</v>
+        <v>14.482</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.092</v>
+        <v>15.027</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.061</v>
+        <v>4.344</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.781</v>
+        <v>13.535</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.09</v>
+        <v>18.799</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.143</v>
+        <v>11.717</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>3.386</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.626</v>
+        <v>2.226</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>2.165</v>
+        <v>198.649</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>0.66</v>
+        <v>37.584</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.638</v>
+        <v>12.493</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.735</v>
+        <v>24.537</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>2.278</v>
+        <v>12.435</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.128</v>
+        <v>3.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.419</v>
+        <v>21.511</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.467</v>
+        <v>11.035</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.214</v>
+        <v>10.064</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.476</v>
+        <v>11.833</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>15.025</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.8090000000000001</v>
+        <v>3.317</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>2.624</v>
+        <v>37.614</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.591</v>
+        <v>6.758</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.381</v>
+        <v>15.619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44795.55555555555</v>
+        <v>45145.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.759</v>
+        <v>24.021</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.335</v>
+        <v>17.322</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.102</v>
+        <v>2.066</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.463</v>
+        <v>52.091</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>3.045</v>
+        <v>42.151</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.903</v>
+        <v>18.904</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>3.475</v>
+        <v>71.25700000000001</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.817</v>
+        <v>29.086</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.621</v>
+        <v>12.725</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.528</v>
+        <v>18.77</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.671</v>
+        <v>20.857</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.412</v>
+        <v>21.894</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.434</v>
+        <v>6.038</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.655</v>
+        <v>18.798</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.57</v>
+        <v>26.609</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.823</v>
+        <v>16.02</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.161</v>
+        <v>1.594</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.177</v>
+        <v>1.31</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>15.007</v>
+        <v>278.818</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.473</v>
+        <v>52.56</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.519</v>
+        <v>17.351</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.987</v>
+        <v>35.068</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>2.008</v>
+        <v>18.275</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.202</v>
+        <v>3.131</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.897</v>
+        <v>35.042</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.209</v>
+        <v>15.326</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.957</v>
+        <v>13.724</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.249</v>
+        <v>16.121</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.693</v>
+        <v>21.804</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.343</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>3.722</v>
+        <v>64.971</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.025</v>
+        <v>9.66</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.458</v>
+        <v>21.693</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44795.5625</v>
+        <v>45145.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.64</v>
+        <v>24.502</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.245</v>
+        <v>17.939</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.212</v>
+        <v>1.593</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>12.064</v>
+        <v>53.231</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>10.117</v>
+        <v>43.339</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.113</v>
+        <v>19.282</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>13.638</v>
+        <v>75.22199999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.263</v>
+        <v>29.668</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.532</v>
+        <v>13.113</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.674</v>
+        <v>19.365</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.029</v>
+        <v>21.351</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.09</v>
+        <v>22.478</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.426</v>
+        <v>6.159</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.641</v>
+        <v>19.174</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.037</v>
+        <v>27.241</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.412</v>
+        <v>16.227</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.836</v>
+        <v>1.105</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.194</v>
+        <v>1.069</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>61.008</v>
+        <v>284.545</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>12.055</v>
+        <v>53.639</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.286</v>
+        <v>17.698</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>8.605</v>
+        <v>35.959</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4.775</v>
+        <v>18.808</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.593</v>
+        <v>2.956</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.145</v>
+        <v>36.475</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.672</v>
+        <v>15.633</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.164</v>
+        <v>13.912</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.814</v>
+        <v>16.348</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.261</v>
+        <v>22.373</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.223</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>12.605</v>
+        <v>68.42700000000001</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.554</v>
+        <v>9.92</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.011</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44795.56944444445</v>
+        <v>45145.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>14.789</v>
+        <v>22.58</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>11.117</v>
+        <v>16.62</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.511</v>
+        <v>1.31</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>32.043</v>
+        <v>49.08</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>26.606</v>
+        <v>40.05</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>11.398</v>
+        <v>17.77</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>41.351</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>18.232</v>
+        <v>27.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>8.42</v>
+        <v>12.13</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>12.097</v>
+        <v>17.92</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.998</v>
+        <v>19.7</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>13.582</v>
+        <v>20.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.732</v>
+        <v>5.68</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>11.764</v>
+        <v>17.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>16.373</v>
+        <v>25.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.391</v>
+        <v>14.91</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.728</v>
+        <v>0.86</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.431</v>
+        <v>0.9</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>169.86</v>
+        <v>261.65</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>32.202</v>
+        <v>49.44</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.863</v>
+        <v>16.31</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>22.176</v>
+        <v>33.2</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>11.798</v>
+        <v>17.38</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.529</v>
+        <v>2.65</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.947</v>
+        <v>33.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>9.499000000000001</v>
+        <v>14.41</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.295999999999999</v>
+        <v>12.79</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.837999999999999</v>
+        <v>15.03</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.653</v>
+        <v>20.66</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.166</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>37.866</v>
+        <v>63.65</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.278</v>
+        <v>9.16</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>13.299</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44795.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>14.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>10.77</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>31.07</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>25.78</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>11.08</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>44.13</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>13.17</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.91</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>164.2</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>31.32</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>21.51</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.65</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.039999999999999</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>13.22</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>40.46</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>12.89</v>
+        <v>20.39</v>
       </c>
     </row>
   </sheetData>
